--- a/lrsoft-stock/src/main/resources/export_stockDayResult.xlsx
+++ b/lrsoft-stock/src/main/resources/export_stockDayResult.xlsx
@@ -43,19 +43,19 @@
     <t>#c.code</t>
   </si>
   <si>
-    <t>#c.key</t>
+    <t>#c.key1</t>
   </si>
   <si>
     <t>#c.percent</t>
   </si>
   <si>
-    <t>#c.avgHighPrice</t>
-  </si>
-  <si>
-    <t>#c.avgLowPrice</t>
-  </si>
-  <si>
-    <t>#c.yangCount</t>
+    <t>#c.avgHigh</t>
+  </si>
+  <si>
+    <t>#c.avgLow</t>
+  </si>
+  <si>
+    <t>#c.yang</t>
   </si>
 </sst>
 </file>
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -94,83 +94,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,6 +116,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -193,6 +176,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -200,8 +191,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,37 +208,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,13 +260,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,37 +410,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,127 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,17 +469,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,15 +502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -523,11 +517,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,7 +547,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,164 +566,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="1" outlineLevelCol="6"/>

--- a/lrsoft-stock/src/main/resources/export_stockDayResult.xlsx
+++ b/lrsoft-stock/src/main/resources/export_stockDayResult.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>#c.key1</t>
   </si>
   <si>
-    <t>#c.percent</t>
+    <t>#c.per</t>
   </si>
   <si>
     <t>#c.avgHigh</t>
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -95,14 +95,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,37 +214,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -154,92 +240,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,25 +260,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,157 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,32 +472,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,6 +489,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +534,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -543,25 +552,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -571,152 +571,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,6 +730,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,7 +1082,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1127,7 +1130,7 @@
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
